--- a/Assets/Resources/ItemExplainData.xlsx
+++ b/Assets/Resources/ItemExplainData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\project\NightOfSurvival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE61B4-462B-4534-9443-60E3F5DBF3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5DDD87-3499-4C0B-9B47-108FEF9124FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23055" yWindow="0" windowWidth="20280" windowHeight="15600" xr2:uid="{E38BCCD0-162A-4EBB-88D3-8371071A9016}"/>
+    <workbookView xWindow="4230" yWindow="375" windowWidth="23205" windowHeight="15600" xr2:uid="{E38BCCD0-162A-4EBB-88D3-8371071A9016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,43 +37,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>부적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부적설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송편설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템1 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템2 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템3 설명</t>
+    <t>떡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물이 담긴 호리병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀신도 배부른 귀신이 때깔이 곱다고 했다. 귀신한테 던지면 관심이 갈 수도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단내가 가득 풍기는 엿이다. 제법 끈적거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 장소로 갈 수 있는 열쇠인 민화의 조합 재료 중 하나. 사용할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래되어 보이는 붓이다. 그림을 그리기에 좋아보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨끗한 물이 담겨 있는 호리병이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,9 +120,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,13 +444,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="99" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="123.25" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,39 +458,39 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Assets/Resources/ItemExplainData.xlsx
+++ b/Assets/Resources/ItemExplainData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\project\NightOfSurvival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5DDD87-3499-4C0B-9B47-108FEF9124FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4558E5-1EA2-4411-B739-D281F1BA6783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="375" windowWidth="23205" windowHeight="15600" xr2:uid="{E38BCCD0-162A-4EBB-88D3-8371071A9016}"/>
+    <workbookView xWindow="1785" yWindow="0" windowWidth="23205" windowHeight="15600" xr2:uid="{E38BCCD0-162A-4EBB-88D3-8371071A9016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>떡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,54 @@
   </si>
   <si>
     <t>깨끗한 물이 담겨 있는 호리병이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영험한 기운이 담긴 구슬이다. 특별한 곳에 사용할 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 설치할 수 있으며 적이 부적의 반경에 진입 시 기절시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 듯한 열쇠다. 하지만 문을 열 수는 있을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나침반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 듯한 나침반이다. 길을 알 수 있을 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끈적한 액체가 담긴 호리병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엿과 물을 섞어 제법 끈적거린다. 누가 쫒아오는데 쓰면 좋을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 섬세하고 아름다운 그림이다. 중요한 곳에 쓰일 것 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,16 +489,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C078B6E-A149-4015-805F-5E83B21AF8F8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="123.25" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="126.125" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,6 +542,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
